--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbc\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="21015" windowHeight="9990"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>prodcut_name</t>
   </si>
@@ -36,17 +41,298 @@
     <t>long_decription</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dsds</t>
+    <t>Chopard Black Incense Malaki Gift Set (Eau de Parfum 80ml + Deo Stick 75ml)</t>
+  </si>
+  <si>
+    <t>Love Chopard Gift Set (Eau de Parfum 100ml + Red Glitter Clutch)</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 + Game On + Play It Cool - EDT Combo Set 300ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 + Game On + Play It Cool - EDT Combo Set 150ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Deo + Game On + Play It Cool - Deo Combo Set 450ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool + Game On - Deo Combo Set 300ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool + CR7 - Deo Combo Set 300ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On + CR7 - Deo Combo Set 300ml</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 50ml + CR7 Play it Cool Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 100ml + CR7 Play it Cool Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On EDT 50ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On EDT 100ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 EDT 50ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 EDT 100ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 50ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 100ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 EDT 50ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 EDT 100ml + CR7 Game On Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 50ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool EDT 100ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On EDT 50ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On EDT 100ml + CR7 Deo 150ml - Combo Set</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Play it Cool Deo 150ml - Pack of 2</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Game On Deo 150ml - Pack of 2</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo CR7 Deo 150ml - Pack of 2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A tribute to one of the most iconic natural ingredients in Oriental masculine perfumery - Frankincense.&lt;br data-mce-fragment="1"&gt;An homage to the royal incense-burning rituals with their mysterious swirls of smoke, that inspired the perfumer in exploring the darker, warmer and more mystical facets of frankincense.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fragrance family -&lt;/strong&gt; Woody - Frankincense - Oud&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Notes -&lt;/strong&gt; &lt;br&gt;Lavandin Oil from France NT&lt;br&gt;Frankincense from Somaliland&lt;br&gt;Patchouli from Indonesia NT&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The red carpet fragrance makes heads turn &amp;amp; hearts flutter. A fragrance that radiates Chopardâ€™s glamourous and optimistic love for life. Love Chopard, Chopard's dazzling tribute to roses. A flamboyant and seductive scent crafted by Master Perfumer Alberto Morillas around a whirl of the most gorgeous roses in the world and intertwined with superb, sustainably sourced natural ingredients. Like a precious talisman, the Love Chopard flacon of refined noble glass features a flower of hearts that encapsulates this precious rose signature. The ultimate adornment for any young diva who gorgeously walks her own red carpet every day.&lt;/p&gt;
+&lt;p&gt;Spray on all pulse points: chest, neck and wrists.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fragrance Family -&lt;/strong&gt; Floral - Rose&lt;/p&gt;
+&lt;p&gt;Top Notes - Damascena Rose Infusion, Rose TaÃ¯f, Mandarin; Heart Notes - Bulgarian Damascena Rose Essential Oil, Centifolia Rose from Morocco, Jasmine Sambac, Orange Blossom; Base Notes - Turkish Damascena Rose Absolute, Patchouli.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;CR7-&lt;/strong&gt;&lt;br&gt; The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;
+&lt;p&gt;Top Notes - Artemisia, Bergamot, Cardomom, Lavendin; Heart Notes - Tobacco, Cinnamon, Iris, Cedarwood; Base Notes - Vanilla Bean, Musk, Sandalwood, Amber&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Game on-&lt;/strong&gt;&lt;br&gt;&lt;/p&gt;
+&lt;p&gt;A totally new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning.&lt;/p&gt;
+&lt;p&gt;Top Notes - Crisp Apple Papaya Cardamom Crushed Ice;Â  Heart Notes - Elemi Violet Dew Lavender Bud Juniper Berry; Base Notes - Cashmere Woods Cedarwood Sugared Tonka Bean Guaiacwood;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Play It cool-&lt;/strong&gt;&lt;br&gt; The scent of a man who is always cool and self-confident. Everyday fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Top notes -mandarin, bergamot, pear; Heart notes - Lavender, cardamom, marine accord; Base notes - Amberwood, Tonka, Musk;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;CR7-&lt;/strong&gt;&lt;br&gt;The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;
+&lt;p&gt;Top Notes - Artemisia, Bergamot, Cardomom, Lavendin; Heart Notes - Tobacco, Cinnamon, Iris, Cedarwood; Base Notes - Vanilla Bean, Musk, Sandalwood, Amber&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Game on-&lt;/strong&gt;&lt;br&gt;&lt;/p&gt;
+&lt;p&gt;A totally new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning.&lt;/p&gt;
+&lt;p&gt;Top Notes - Crisp Apple Papaya Cardamom Crushed Ice;Â  Heart Notes - Elemi Violet Dew Lavender Bud Juniper Berry; Base Notes - Cashmere Woods Cedarwood Sugared Tonka Bean Guaiacwood;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Play It cool-&lt;/strong&gt;&lt;br&gt;The scent of a man who is always cool and self-confident. Everyday fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Top notes -mandarin, bergamot, pear; Heart notes - Lavender, cardamom, marine accord; Base notes - Amberwood, Tonka, Musk;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;CR7 Deo-&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt; 
+&lt;p&gt;Game on-&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;
+&lt;p&gt;Play It cool-&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Play it Cool  -&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Game On -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Play it Cool  -&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;CR7 Deo -&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Game On -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;
+&lt;p&gt;CR7 Deo -&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The scent of a man who is always cool and self-confident. Everyday fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Fragrance family -Â AROMATIC FOUGERE;&lt;/p&gt;
+&lt;p&gt;Top notes -Mandarin, bergamot, pear;&lt;/p&gt;
+&lt;p&gt;Heart notes - Lavender, cardamom, marine accord;&lt;/p&gt;
+&lt;p&gt;Base notes - Amberwood, Tonka, Musk;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Play it Cool   -&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;CR7 Game On -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A totally new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning.&lt;/p&gt;
+&lt;p&gt;Fragrance family -Â WOODY FRUITY;&lt;/p&gt;
+&lt;p&gt;Top Notes - Crisp Apple Papaya Cardamom Crushed Ice ;&lt;/p&gt;
+&lt;p&gt;Heart Notes - Elemi Violet Dew Lavender Bud Juniper Berry ;&lt;/p&gt;
+&lt;p&gt;Base Notes - Cashmere Woods Cedarwood Sugared Tonka Bean Guaiacwood;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;
+&lt;p&gt;Fragrance family - FOUGERE ORIENTAL;&lt;/p&gt;
+&lt;p&gt;Top Notes - Artemisia, Bergamot, Cardomom, Lavendin;&lt;/p&gt;
+&lt;p&gt;Heart Notes - Tobacco, Cinnamon, Iris, Cedarwood;&lt;/p&gt;
+&lt;p&gt;Base Notes - Vanilla Bean, Musk, Sandalwood, Amber;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Play it Cool   -&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Game on deo -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;CR7 Red  -&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt; 
+&lt;p&gt;Game on deo -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Play it Cool EDT -&lt;br&gt;
+The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;
+&lt;p&gt;Play it Cool Deo -&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;CR7 Game On -&lt;/strong&gt;&lt;br&gt; A totally new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning.&lt;/p&gt;
+&lt;p&gt;Top Notes - Crisp Apple, Papaya, Cardamom, Crushed Ice; Heart Notes - Elemi, Violet Dew, Lavender Bud, Juniper Berry; Base Notes - Cashmere Woods, Cedarwood, Sugared Tonka Bean Guaiacwood;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;CR7 Deo-&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;
+&lt;p&gt;Top Notes - Artemisia, Bergamot, Cardomom, Lavendin; Heart Notes - Tobacco, Cinnamon, Iris, Cedarwood; Base Notes - Vanilla Bean, Musk, Sandalwood, Amber;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;CR7 Game On -&lt;br&gt;
+A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;
+&lt;p&gt;CR7 Deo -&lt;br&gt;
+The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The scent of a man who is always cool and self-confident. Every day fragrance for a lifestyle touch.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A total new look and lifestyle fragrance for the modern young man 16+. Casual and evening positioning&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The scent of energy and sexiness for men who take up the challenge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/694410_1.jpg?v=1661163811</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/804810_1.jpg?v=1661162018</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550223_1.jpg?v=1657705435</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550222_1.jpg?v=1657705412</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550221_1.jpg?v=1657705390</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550220_1.jpg?v=1657705370</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550219_1.jpg?v=1657705355</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550218_1.jpg?v=1657705340</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550217_1.jpg?v=1657705323</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550216_1.jpg?v=1657705308</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550215_1.jpg?v=1657705293</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550214_1.jpg?v=1657705277</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550213_1.jpg?v=1657705262</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550212_1.jpg?v=1657705247</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550211_1.jpg?v=1657705232</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550210_1.jpg?v=1657705215</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550209_1.jpg?v=1657705199</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550208_1.jpg?v=1657705182</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550207_1.jpg?v=1657705164</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550206_1.jpg?v=1657705148</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550205_1.jpg?v=1657705131</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550204_1.jpg?v=1657705115</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550203_1.jpg?v=1657705100</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550202_1.jpg?v=1657705091</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0553/9689/2847/products/550201_1.jpg?v=1657705083</t>
+  </si>
+  <si>
+    <t>inventory_count</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +361,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,9 +475,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,6 +510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,147 +686,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10200</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10200</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9200</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14700</v>
+      </c>
+      <c r="D4" s="4">
+        <v>14700</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11700</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11700</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C6" s="2">
+        <v>2370</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2370</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C8" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4690</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4690</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5690</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5690</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="C24" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1580</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="8505"/>
+    <workbookView windowWidth="17100" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>sku_no</t>
+  </si>
   <si>
     <t>prodcut_name</t>
   </si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>product_size_id</t>
+  </si>
+  <si>
+    <t>PRO45445</t>
   </si>
   <si>
     <t>Chopard Black Incense Malaki Gift Set (Eau de Parfum 80ml + Deo Stick 75ml)</t>
@@ -82,12 +88,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,52 +103,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,17 +156,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -202,36 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -256,109 +255,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,67 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +446,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,15 +493,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,30 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -550,148 +549,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,20 +1049,20 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="255.714285714286" customWidth="1"/>
-    <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="78.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="255.714285714286" customWidth="1"/>
+    <col min="8" max="8" width="14.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1104,36 +1103,36 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
         <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10200</v>
       </c>
       <c r="D2" s="1">
         <v>10200</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <v>10200</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
         <v>27</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1142,36 +1141,36 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
         <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9200</v>
       </c>
       <c r="D3" s="1">
         <v>9200</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>9200</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
         <v>27</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1180,215 +1179,192 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
